--- a/Tableau Table 2.xlsx
+++ b/Tableau Table 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1c8e48a6948c60c/Data Analytics/DataAnalytics-Projects-SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{4B174121-42ED-40FE-B9F1-EEC5E6F1D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E32471D9-2047-46EE-BE73-C94D1B111FC3}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{4B174121-42ED-40FE-B9F1-EEC5E6F1D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F8F065-7EF1-488C-AF21-9F21272F5050}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,40 +27,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>High income</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>Oceania</t>
+  </si>
+  <si>
+    <t>TotalDeathCount</t>
+  </si>
+  <si>
     <t>location</t>
-  </si>
-  <si>
-    <t>High income</t>
-  </si>
-  <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
-    <t>Europe</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Low income</t>
-  </si>
-  <si>
-    <t>Oceania</t>
-  </si>
-  <si>
-    <t>TotalDeathCount</t>
   </si>
 </sst>
 </file>
@@ -384,9 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -398,90 +396,90 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2867246</v>
+        <v>2872091</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2655237</v>
+        <v>2656174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2050706</v>
+        <v>2054227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1629441</v>
+        <v>1630174</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1596573</v>
+        <v>1597992</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1353500</v>
+        <v>1354001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1340758</v>
+        <v>1341346</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>258873</v>
+        <v>258887</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>47905</v>
+        <v>47908</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>25997</v>
+        <v>26184</v>
       </c>
     </row>
   </sheetData>
